--- a/data/Spreadsheet_Data/ImageAnimal.xlsx
+++ b/data/Spreadsheet_Data/ImageAnimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B482E45F-B2AC-4045-9938-5E80BF6EF054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272474F-2B1C-A146-BCB8-82BF0DFD7A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23800" yWindow="10300" windowWidth="48600" windowHeight="16940" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
+    <workbookView xWindow="21480" yWindow="7440" windowWidth="48600" windowHeight="16940" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Ping_001.jpg</t>
   </si>
@@ -88,45 +88,12 @@
     <t>IA_0008</t>
   </si>
   <si>
-    <t>IA_0009</t>
-  </si>
-  <si>
-    <t>IA_0010</t>
-  </si>
-  <si>
-    <t>IA_0011</t>
-  </si>
-  <si>
-    <t>IA_0012</t>
-  </si>
-  <si>
-    <t>IA_0013</t>
-  </si>
-  <si>
-    <t>IA_0014</t>
-  </si>
-  <si>
-    <t>IA_0015</t>
-  </si>
-  <si>
-    <t>IA_0016</t>
-  </si>
-  <si>
-    <t>IA_0017</t>
-  </si>
-  <si>
-    <t>IA_0018</t>
-  </si>
-  <si>
     <t>Noémi Villars-Amberg</t>
   </si>
   <si>
     <t>CC BY 4.0</t>
   </si>
   <si>
-    <t>~/Documents/daschland-scripts/data/Multimedia_Data/Image_Animal</t>
-  </si>
-  <si>
     <t>Ping baby</t>
   </si>
   <si>
@@ -182,6 +149,12 @@
   </si>
   <si>
     <t>Part of Animal Character ID</t>
+  </si>
+  <si>
+    <t>~/Documents/daschland-scripts/data/Multimedia_Data/Image_Animal/</t>
+  </si>
+  <si>
+    <t>directly from EXIF</t>
   </si>
 </sst>
 </file>
@@ -574,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4C0B3-DAB9-2C43-91D3-2912AFCD6F96}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
@@ -595,31 +568,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,20 +602,23 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
@@ -655,20 +631,23 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -681,20 +660,23 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I4" s="2">
         <v>4</v>
@@ -707,20 +689,23 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="I5" s="2">
         <v>5</v>
@@ -733,20 +718,23 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I6" s="2">
         <v>3</v>
@@ -759,20 +747,23 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I7" s="2">
         <v>1</v>
@@ -785,20 +776,23 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
@@ -811,77 +805,31 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="I9" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/Spreadsheet_Data/ImageAnimal.xlsx
+++ b/data/Spreadsheet_Data/ImageAnimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272474F-2B1C-A146-BCB8-82BF0DFD7A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5608AE2-5255-D240-BED8-B66BC943CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="7440" windowWidth="48600" windowHeight="16940" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
+    <workbookView xWindow="2440" yWindow="500" windowWidth="38780" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>Ping_001.jpg</t>
   </si>
@@ -155,15 +155,169 @@
   </si>
   <si>
     <t>directly from EXIF</t>
+  </si>
+  <si>
+    <t>Rita_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Ivan_duck.jpeg</t>
+  </si>
+  <si>
+    <t>DanielaS_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Balduin_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Christian_duck.jpeg</t>
+  </si>
+  <si>
+    <t>JulienS_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Johannes_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Florian_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Noemi_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Nora_duck.jpeg</t>
+  </si>
+  <si>
+    <t>Gregor_duck.jpeg</t>
+  </si>
+  <si>
+    <t>RDU_Ginny.jpeg</t>
+  </si>
+  <si>
+    <t>IA_0009</t>
+  </si>
+  <si>
+    <t>IA_0010</t>
+  </si>
+  <si>
+    <t>IA_0011</t>
+  </si>
+  <si>
+    <t>IA_0012</t>
+  </si>
+  <si>
+    <t>IA_0013</t>
+  </si>
+  <si>
+    <t>IA_0014</t>
+  </si>
+  <si>
+    <t>IA_0015</t>
+  </si>
+  <si>
+    <t>IA_0016</t>
+  </si>
+  <si>
+    <t>IA_0017</t>
+  </si>
+  <si>
+    <t>IA_0018</t>
+  </si>
+  <si>
+    <t>IA_0019</t>
+  </si>
+  <si>
+    <t>IA_0020</t>
+  </si>
+  <si>
+    <t>Daniela Subotic</t>
+  </si>
+  <si>
+    <t>Rita's duck</t>
+  </si>
+  <si>
+    <t>Ivan's duck</t>
+  </si>
+  <si>
+    <t>DanielaS's duck</t>
+  </si>
+  <si>
+    <t>Balduin's duck</t>
+  </si>
+  <si>
+    <t>Christian's duck</t>
+  </si>
+  <si>
+    <t>JulienS's duck</t>
+  </si>
+  <si>
+    <t>Johannes's duck</t>
+  </si>
+  <si>
+    <t>Florian's duck</t>
+  </si>
+  <si>
+    <t>Noémi's duck</t>
+  </si>
+  <si>
+    <t>Nora's duck</t>
+  </si>
+  <si>
+    <t>Gregor's duck</t>
+  </si>
+  <si>
+    <t>Ginny in RDU Team meeting</t>
+  </si>
+  <si>
+    <t>A_001</t>
+  </si>
+  <si>
+    <t>A_010</t>
+  </si>
+  <si>
+    <t>A_011</t>
+  </si>
+  <si>
+    <t>A_012</t>
+  </si>
+  <si>
+    <t>A_013</t>
+  </si>
+  <si>
+    <t>A_014</t>
+  </si>
+  <si>
+    <t>A_015</t>
+  </si>
+  <si>
+    <t>A_016</t>
+  </si>
+  <si>
+    <t>A_017</t>
+  </si>
+  <si>
+    <t>A_018</t>
+  </si>
+  <si>
+    <t>A_019</t>
+  </si>
+  <si>
+    <t>A_009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -209,10 +363,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4C0B3-DAB9-2C43-91D3-2912AFCD6F96}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -560,7 +715,7 @@
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
@@ -827,8 +982,320 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/Spreadsheet_Data/ImageAnimal.xlsx
+++ b/data/Spreadsheet_Data/ImageAnimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5608AE2-5255-D240-BED8-B66BC943CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A12FBCA-3710-C542-9D00-B848E8FDEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="38780" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
+    <workbookView xWindow="2440" yWindow="500" windowWidth="48520" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>Part of Animal Character ID</t>
   </si>
   <si>
-    <t>~/Documents/daschland-scripts/data/Multimedia_Data/Image_Animal/</t>
-  </si>
-  <si>
     <t>directly from EXIF</t>
   </si>
   <si>
@@ -302,6 +299,9 @@
   </si>
   <si>
     <t>A_009</t>
+  </si>
+  <si>
+    <t>data/Multimedia_Data/Image_Animal/</t>
   </si>
 </sst>
 </file>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4C0B3-DAB9-2C43-91D3-2912AFCD6F96}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>19</v>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -796,7 +796,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>20</v>
@@ -816,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -825,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -845,7 +845,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>17</v>
@@ -854,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>22</v>
@@ -874,7 +874,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>23</v>
@@ -903,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>17</v>
@@ -912,7 +912,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>24</v>
@@ -932,7 +932,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>17</v>
@@ -941,7 +941,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -970,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>26</v>
@@ -984,25 +984,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="2">
         <v>7</v>
@@ -1010,25 +1010,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="2">
         <v>8</v>
@@ -1036,25 +1036,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I12" s="2">
         <v>9</v>
@@ -1062,25 +1062,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
@@ -1088,25 +1088,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2">
         <v>11</v>
@@ -1114,25 +1114,25 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I15" s="2">
         <v>12</v>
@@ -1140,25 +1140,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="2">
         <v>13</v>
@@ -1166,25 +1166,25 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="2">
         <v>14</v>
@@ -1192,25 +1192,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I18" s="2">
         <v>15</v>
@@ -1218,25 +1218,25 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I19" s="2">
         <v>16</v>
@@ -1244,25 +1244,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2">
         <v>17</v>
@@ -1270,25 +1270,25 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I21" s="2">
         <v>6</v>

--- a/data/Spreadsheet_Data/ImageAnimal.xlsx
+++ b/data/Spreadsheet_Data/ImageAnimal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A12FBCA-3710-C542-9D00-B848E8FDEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD157E-1125-E94F-AD96-1463D1C0D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="48520" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
+    <workbookView xWindow="19660" yWindow="2720" windowWidth="48520" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>Ping_001.jpg</t>
   </si>
@@ -302,6 +302,27 @@
   </si>
   <si>
     <t>data/Multimedia_Data/Image_Animal/</t>
+  </si>
+  <si>
+    <t>IA_0021</t>
+  </si>
+  <si>
+    <t>IA_0022</t>
+  </si>
+  <si>
+    <t>IMG_5877.jpg</t>
+  </si>
+  <si>
+    <t>Nora Ammann</t>
+  </si>
+  <si>
+    <t>Ginny playing in the snow</t>
+  </si>
+  <si>
+    <t>IMG_7498.jpg</t>
+  </si>
+  <si>
+    <t>Ginny sleeping</t>
   </si>
 </sst>
 </file>
@@ -702,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4C0B3-DAB9-2C43-91D3-2912AFCD6F96}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1294,6 +1315,58 @@
         <v>6</v>
       </c>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="2">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Spreadsheet_Data/ImageAnimal.xlsx
+++ b/data/Spreadsheet_Data/ImageAnimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AD157E-1125-E94F-AD96-1463D1C0D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32726A9-3C76-B84E-8611-919E4314FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19660" yWindow="2720" windowWidth="48520" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
+    <workbookView xWindow="22060" yWindow="500" windowWidth="48520" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="120">
   <si>
     <t>Ping_001.jpg</t>
   </si>
@@ -323,6 +323,78 @@
   </si>
   <si>
     <t>Ginny sleeping</t>
+  </si>
+  <si>
+    <t>IA_0023</t>
+  </si>
+  <si>
+    <t>IA_0024</t>
+  </si>
+  <si>
+    <t>IA_0025</t>
+  </si>
+  <si>
+    <t>IA_0026</t>
+  </si>
+  <si>
+    <t>IA_0027</t>
+  </si>
+  <si>
+    <t>IA_0028</t>
+  </si>
+  <si>
+    <t>IA_0029</t>
+  </si>
+  <si>
+    <t>IMG_0332.jpeg</t>
+  </si>
+  <si>
+    <t>Kenzi and Loki sleeping in the office</t>
+  </si>
+  <si>
+    <t>IMG_0837.jpeg</t>
+  </si>
+  <si>
+    <t>Kenzi and Loki sleeping in the office part II</t>
+  </si>
+  <si>
+    <t>IMG_1226.jpeg</t>
+  </si>
+  <si>
+    <t>Kenzi and Loki sleeping in the office part III</t>
+  </si>
+  <si>
+    <t>IMG_1659.jpeg</t>
+  </si>
+  <si>
+    <t>Atli sleeping during a meeting</t>
+  </si>
+  <si>
+    <t>IMG_1853.jpeg</t>
+  </si>
+  <si>
+    <t>Atli sleeping during a meeting part II</t>
+  </si>
+  <si>
+    <t>IMG_2164.jpeg</t>
+  </si>
+  <si>
+    <t>Loki sleeping in the office</t>
+  </si>
+  <si>
+    <t>IMG_2163.jpeg</t>
+  </si>
+  <si>
+    <t>Kenzi sleeping in the office</t>
+  </si>
+  <si>
+    <t>A_004</t>
+  </si>
+  <si>
+    <t>A_004, A_005</t>
+  </si>
+  <si>
+    <t>A_005</t>
   </si>
 </sst>
 </file>
@@ -723,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8D4C0B3-DAB9-2C43-91D3-2912AFCD6F96}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -736,7 +808,7 @@
     <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="10.83203125" style="2"/>
@@ -1367,6 +1439,188 @@
         <v>19</v>
       </c>
     </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I26" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I28" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="2">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Spreadsheet_Data/ImageAnimal.xlsx
+++ b/data/Spreadsheet_Data/ImageAnimal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32726A9-3C76-B84E-8611-919E4314FD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2FCF25-6AFC-9E4C-BF13-04199DED7922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22060" yWindow="500" windowWidth="48520" windowHeight="24900" xr2:uid="{7817BDEF-C6F5-9648-B0A6-E9D5093E57EC}"/>
   </bookViews>
@@ -805,7 +805,7 @@
   <cols>
     <col min="1" max="1" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.5" style="2" bestFit="1" customWidth="1"/>
